--- a/Data/Transitions/19591972Translation.xlsx
+++ b/Data/Transitions/19591972Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="667">
   <si>
     <t>id</t>
   </si>
@@ -427,7 +427,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -619,7 +619,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1703,9 +1703,6 @@
   </si>
   <si>
     <t>{235.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.003714175107252557, 228.0: 0.001540565582717742}</t>
@@ -3874,7 +3871,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>563</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3885,7 +3882,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3896,7 +3893,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3951,7 +3948,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4017,7 +4014,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4083,7 +4080,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4127,7 +4124,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4138,7 +4135,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4182,7 +4179,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4270,7 +4267,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4281,7 +4278,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4292,7 +4289,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4303,7 +4300,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4358,7 +4355,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4380,7 +4377,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4391,7 +4388,7 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4413,7 +4410,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4435,7 +4432,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4446,7 +4443,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4457,7 +4454,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4523,7 +4520,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4578,7 +4575,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>563</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4611,7 +4608,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4622,7 +4619,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4633,7 +4630,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4655,7 +4652,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4710,7 +4707,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4776,7 +4773,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4831,7 +4828,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4853,7 +4850,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4930,7 +4927,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4974,7 +4971,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4996,7 +4993,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -5040,7 +5037,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5062,7 +5059,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -5073,7 +5070,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -5227,7 +5224,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5271,7 +5268,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5282,7 +5279,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5359,7 +5356,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5370,7 +5367,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5436,7 +5433,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5447,7 +5444,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5535,7 +5532,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5568,7 +5565,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5590,7 +5587,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5601,7 +5598,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5623,7 +5620,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5645,7 +5642,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5667,7 +5664,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5689,7 +5686,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5744,7 +5741,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5887,7 +5884,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5898,7 +5895,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5942,7 +5939,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5964,7 +5961,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6030,7 +6027,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6063,7 +6060,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6085,7 +6082,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6140,7 +6137,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6162,7 +6159,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6261,7 +6258,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6272,7 +6269,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6283,7 +6280,7 @@
         <v>356</v>
       </c>
       <c r="C355" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6294,7 +6291,7 @@
         <v>357</v>
       </c>
       <c r="C356" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6382,7 +6379,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6404,7 +6401,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6448,7 +6445,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6459,7 +6456,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6503,7 +6500,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6569,7 +6566,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6580,7 +6577,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6624,7 +6621,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -6679,7 +6676,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -6723,7 +6720,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6987,7 +6984,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -6998,7 +6995,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7042,7 +7039,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7053,7 +7050,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7075,7 +7072,7 @@
         <v>428</v>
       </c>
       <c r="C427" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -7108,7 +7105,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7119,7 +7116,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7130,7 +7127,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7141,7 +7138,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7152,7 +7149,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7174,7 +7171,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7229,7 +7226,7 @@
         <v>442</v>
       </c>
       <c r="C441" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7295,7 +7292,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7372,7 +7369,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7416,7 +7413,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7427,7 +7424,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7438,7 +7435,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7493,7 +7490,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7504,7 +7501,7 @@
         <v>467</v>
       </c>
       <c r="C466" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -7526,7 +7523,7 @@
         <v>469</v>
       </c>
       <c r="C468" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -7548,7 +7545,7 @@
         <v>471</v>
       </c>
       <c r="C470" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -7669,7 +7666,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7735,7 +7732,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7823,7 +7820,7 @@
         <v>496</v>
       </c>
       <c r="C495" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7845,7 +7842,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7867,7 +7864,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7878,7 +7875,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7900,7 +7897,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7922,7 +7919,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8021,7 +8018,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
